--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1993.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1993.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182820879136426</v>
+        <v>0.5954846143722534</v>
       </c>
       <c r="B1">
-        <v>2.224231521081273</v>
+        <v>0.9313179850578308</v>
       </c>
       <c r="C1">
-        <v>8.380321633508064</v>
+        <v>2.416607856750488</v>
       </c>
       <c r="D1">
-        <v>2.578362324323439</v>
+        <v>6.362005710601807</v>
       </c>
       <c r="E1">
-        <v>1.203470886455881</v>
+        <v>2.140755176544189</v>
       </c>
     </row>
   </sheetData>
